--- a/medicine/Psychotrope/Route_des_vins_de_Moselle/Route_des_vins_de_Moselle.xlsx
+++ b/medicine/Psychotrope/Route_des_vins_de_Moselle/Route_des_vins_de_Moselle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La route des vins de Moselle est un itinéraire touristique qui parcourt la région viticole à la découverte des vins et de leur production.
@@ -512,9 +524,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une longueur de 46 kilomètres, elle se situe non loin du Luxembourg et de l'Allemagne et relie 20 communes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une longueur de 46 kilomètres, elle se situe non loin du Luxembourg et de l'Allemagne et relie 20 communes :
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La route des vins du Pays messin est inaugurée le vendredi 23 aout 2013[2], avec une distance de 25 kilomètres. En 2014 le tronçon est agrandi avec 5 nouvelles communes dont le but est de densifier l’offre touristique et rendre plus visible l’AOC Moselle[2] et passer la surface d’exploitation viticole à plus de 100 hectares labellisés AOC avant 2025[2]. 16 vignerons récoltants se trouvent sur cette route[3].
-Il existe 207 panneaux concernant la route des vins de Moselle[1].
-La route passe par des caves très connues[4], les vins de Moselle ont cependant une moins grande réputation que les vins de Moselle en Allemagne[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La route des vins du Pays messin est inaugurée le vendredi 23 aout 2013, avec une distance de 25 kilomètres. En 2014 le tronçon est agrandi avec 5 nouvelles communes dont le but est de densifier l’offre touristique et rendre plus visible l’AOC Moselle et passer la surface d’exploitation viticole à plus de 100 hectares labellisés AOC avant 2025. 16 vignerons récoltants se trouvent sur cette route.
+Il existe 207 panneaux concernant la route des vins de Moselle.
+La route passe par des caves très connues, les vins de Moselle ont cependant une moins grande réputation que les vins de Moselle en Allemagne,.
 </t>
         </is>
       </c>
